--- a/src/cab/perm/falcon.app.xlsx
+++ b/src/cab/perm/falcon.app.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C755502-9A95-FE47-BAA4-B57408FAD29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4494BF-4B1F-854F-9E12-6B874A48C44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="58440" yWindow="-10820" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -79,6 +79,9 @@
     <t>permId</t>
   </si>
   <si>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+  </si>
+  <si>
     <t>操作基本数据</t>
   </si>
   <si>
@@ -179,10 +182,6 @@
   </si>
   <si>
     <t>7b8e9896-49b0-4013-a75d-f88b60413704</t>
-  </si>
-  <si>
-    <t>#ROLE_ID#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -713,7 +712,7 @@
   <dimension ref="A3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -763,101 +762,101 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -865,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -881,13 +880,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>5</v>
@@ -896,22 +895,22 @@
         <v>4</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -922,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>1</v>
@@ -931,22 +930,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/cab/perm/falcon.app.xlsx
+++ b/src/cab/perm/falcon.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4494BF-4B1F-854F-9E12-6B874A48C44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477798D-C4D8-DB4F-9FF0-5A5085D776F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58440" yWindow="-10820" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="67720" yWindow="-9200" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>active</t>
   </si>
@@ -151,12 +151,6 @@
     <t>模块信息读取</t>
   </si>
   <si>
-    <t>上传</t>
-  </si>
-  <si>
-    <t>下载</t>
-  </si>
-  <si>
     <t>b7dcf5e9-fc97-40f9-84c0-e35548b8f217</t>
   </si>
   <si>
@@ -176,12 +170,6 @@
   </si>
   <si>
     <t>b582539c-385d-4259-8374-1bd503555cf2</t>
-  </si>
-  <si>
-    <t>9d397b5e-12a7-4ca7-8e09-211d50ba7e5e</t>
-  </si>
-  <si>
-    <t>7b8e9896-49b0-4013-a75d-f88b60413704</t>
   </si>
 </sst>
 </file>
@@ -709,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:K20"/>
+  <dimension ref="A3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A15" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -731,7 +719,7 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -751,7 +739,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -760,197 +748,175 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>40</v>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="5" t="s">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/cab/perm/falcon.app.xlsx
+++ b/src/cab/perm/falcon.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477798D-C4D8-DB4F-9FF0-5A5085D776F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E96725-C7A0-0F4E-8A68-5F407B18461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67720" yWindow="-9200" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="41980" yWindow="-8540" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>active</t>
   </si>
@@ -170,6 +173,20 @@
   </si>
   <si>
     <t>b582539c-385d-4259-8374-1bd503555cf2</t>
+  </si>
+  <si>
+    <t>环境信息更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</t>
+  </si>
+  <si>
+    <t>524d2d46-82cb-45ef-8f70-3ace75ed978f</t>
+  </si>
+  <si>
+    <t>数据源信息读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -697,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:K18"/>
+  <dimension ref="A3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A13:XFD15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -719,7 +736,7 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,7 +747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -739,7 +756,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -748,7 +765,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -759,7 +776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
@@ -770,7 +787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -781,7 +798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:3">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
@@ -792,7 +809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -803,7 +820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:3">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -814,7 +831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
@@ -825,98 +842,120 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/cab/perm/falcon.app.xlsx
+++ b/src/cab/perm/falcon.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E96725-C7A0-0F4E-8A68-5F407B18461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C8E14D-41FC-5041-8160-8C089EE42E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41980" yWindow="-8540" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="41980" yWindow="-11900" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>active</t>
   </si>
@@ -186,6 +186,13 @@
   </si>
   <si>
     <t>数据源信息读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b3d8f78-5cef-4705-b2eb-847b8d38672d</t>
+  </si>
+  <si>
+    <t>公告信息同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:K19"/>
+  <dimension ref="A3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -864,98 +871,109 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
